--- a/biology/Médecine/Miles_de_Marseille/Miles_de_Marseille.xlsx
+++ b/biology/Médecine/Miles_de_Marseille/Miles_de_Marseille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Miles de Marseille, ou Samuel ben Judah ben Meshuallm, surnommé Barbaveira, né en 1294 à Marseille, est un médecin et philosophie juif. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence dès son jeune âge à étudier la science et la philosophie, puis quitte sa ville natale pour Salon. Il y étudie l'astronomie sous la direction d'Abba Mari Senior Astruc de Noves. En 1322, il est fait prisonnier dans la tour de Rodorte à Beaucaire, avec d'autres Juifs. Plus tard, il séjourne à Murcie, Tarascon, Aix et Montélimar. 
-Miles obtient la renommée grâce à ses traductions d'œuvres scientifiques et philosophiques arabes vers l'hébreu[1].
+Miles obtient la renommée grâce à ses traductions d'œuvres scientifiques et philosophiques arabes vers l'hébreu.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ha-She'elot ha-Dibriyyot meha-Derushim Asher le-Filusufim, traduction des questions ou dissertations concernant des points obscurs dans le commentaire d'Averroès sur certaines parties de l'Organon (1320)</t>
         </is>
